--- a/biology/Botanique/Flodor/Flodor.xlsx
+++ b/biology/Botanique/Flodor/Flodor.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Flodor est une ancienne entreprise française spécialisée dans la production de chips et autres produits à base de pomme de terre, ainsi qu'une marque commerciale homonyme créée par cette société. L'entreprise, fondée en 1958 par Jean Brueder[1], dont le siège se trouvait à Saint-Cloud (Hauts-de-Seine) et le site de production à Péronne (Somme), a été achetée en 1990 par le groupe italien Unichips, avant d'être liquidée en 2005[2],[3].
-Unichips, aussi appelé San Carlo Gruppo Alimentare, basé à Milan[4] et dont la marque principale est « San Carlo », continue de commercialiser des produits sous la marque « Flodor ».
+Flodor est une ancienne entreprise française spécialisée dans la production de chips et autres produits à base de pomme de terre, ainsi qu'une marque commerciale homonyme créée par cette société. L'entreprise, fondée en 1958 par Jean Brueder, dont le siège se trouvait à Saint-Cloud (Hauts-de-Seine) et le site de production à Péronne (Somme), a été achetée en 1990 par le groupe italien Unichips, avant d'être liquidée en 2005,.
+Unichips, aussi appelé San Carlo Gruppo Alimentare, basé à Milan et dont la marque principale est « San Carlo », continue de commercialiser des produits sous la marque « Flodor ».
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans les années 1960, cette société lança une campagne publicitaire pour faire connaître ses chips, « la blonde à croquer », qui fut la première « campagne mystère » à grande échelle en France[5]. Cette campagne fut une création de Marcel Bleustein-Blanchet, fondateur de Publicis[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans les années 1960, cette société lança une campagne publicitaire pour faire connaître ses chips, « la blonde à croquer », qui fut la première « campagne mystère » à grande échelle en France. Cette campagne fut une création de Marcel Bleustein-Blanchet, fondateur de Publicis.
 En janvier 2013, le Groupe Casino relance la marque lors d'une opération "Flodor Collector". Depuis la marque s'est développée à nouveau avec différents produits.
 </t>
         </is>
